--- a/biology/Botanique/Saussurea/Saussurea.xlsx
+++ b/biology/Botanique/Saussurea/Saussurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saussurea est un genre d'environ 300 espèces de plante à fleurs de la famille des Asteraceae. Ce sont des plantes alpines qui ont été découvertes par Horace-Bénédict de Saussure (1740-1799) dans un de ses voyages. À sa mort, ce taxon lui a été dédié par Augustin Pyrame de Candolle.
-Ce genre également mentionné par Paul Fournier est aussi dédié à Nicolas Théodore de Saussure (1767-1845), fils de Horace-Bénédict de Saussure[1].La Flore Nord Américaine attribue le genre aux deux auteurs[2].
+Ce genre également mentionné par Paul Fournier est aussi dédié à Nicolas Théodore de Saussure (1767-1845), fils de Horace-Bénédict de Saussure.La Flore Nord Américaine attribue le genre aux deux auteurs.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Saussurea abnormis. Himalaya.
@@ -660,9 +674,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[3]   24 avril 2013
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   24 avril 2013
 Cinnamomum acuminatifolium Hayata
 Saussurea acanthocarpa Sch.Bip. ex Hook.f.
 Saussurea acropilina Diels
